--- a/SubRES_TMPL/SubRes_ELC_DKprices.xlsx
+++ b/SubRES_TMPL/SubRes_ELC_DKprices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_04\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F69B18-CE99-4521-9F79-789F70443D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6681B9A4-9942-4F0B-B838-8DE4809E9541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -980,7 +980,7 @@
   <dimension ref="B1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SubRES_TMPL/SubRes_ELC_DKprices.xlsx
+++ b/SubRES_TMPL/SubRes_ELC_DKprices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6681B9A4-9942-4F0B-B838-8DE4809E9541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D7CBDE-F3F9-4BA7-8E44-9BF7FAE716A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -880,8 +880,8 @@
   </sheetPr>
   <dimension ref="B1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,7 +979,7 @@
   </sheetPr>
   <dimension ref="B1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRes_ELC_DKprices.xlsx
+++ b/SubRES_TMPL/SubRes_ELC_DKprices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D7CBDE-F3F9-4BA7-8E44-9BF7FAE716A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB914F4-87A9-4307-B28D-4CA5EBA7F311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,7 +881,7 @@
   <dimension ref="B1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SubRES_TMPL/SubRes_ELC_DKprices.xlsx
+++ b/SubRES_TMPL/SubRes_ELC_DKprices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_04\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB914F4-87A9-4307-B28D-4CA5EBA7F311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B442090A-B063-4A1C-9240-A34B1DF95945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Description</t>
   </si>
@@ -109,9 +109,6 @@
     <t>PJ</t>
   </si>
   <si>
-    <t>MW</t>
-  </si>
-  <si>
     <t>DAYNITE</t>
   </si>
   <si>
@@ -148,12 +145,6 @@
     <t>*TechDesc</t>
   </si>
   <si>
-    <t>*IMPELC-DKW</t>
-  </si>
-  <si>
-    <t>*IMP</t>
-  </si>
-  <si>
     <t>ELC_PRIS</t>
   </si>
   <si>
@@ -161,6 +152,15 @@
   </si>
   <si>
     <t>PJa</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>Pja</t>
+  </si>
+  <si>
+    <t>VAROM</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,6 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,16 +412,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -435,7 +436,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9464040" y="190500"/>
+          <a:off x="11049000" y="160020"/>
           <a:ext cx="2415540" cy="2141220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -878,10 +879,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="B1:I5"/>
+  <dimension ref="B1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -926,44 +927,44 @@
         <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="9" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -977,10 +978,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="B1:I5"/>
+  <dimension ref="B1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,46 +990,49 @@
     <col min="3" max="3" width="37.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9">
@@ -1043,28 +1047,34 @@
       <c r="I3" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9">
-        <v>50</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F4" s="9">
+        <v>100</v>
+      </c>
+      <c r="G4" s="9">
         <v>2022</v>
       </c>
-      <c r="H5" s="9">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
         <v>1</v>
       </c>
     </row>
